--- a/biology/Botanique/Platonia/Platonia.xlsx
+++ b/biology/Botanique/Platonia/Platonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platonia est un genre de plantes à fleurs de la famille des Clusiaceae.
 En Côte d'Ivoire, les fruits cette plante sont appelés zaman par la population du Nord. Les fruits sont utilisés pour faire du jus comestible appelé zaman dji.
@@ -512,18 +524,20 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (11 septembre 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (11 septembre 2013) :
 Platonia insignis
-Selon ITIS      (11 septembre 2013)[3] :
+Selon ITIS      (11 septembre 2013) :
 Platonia insignis Mart.
-Selon NCBI  (11 septembre 2013)[4] :
+Selon NCBI  (11 septembre 2013) :
 Platonia insignis
-Selon The Plant List            (11 septembre 2013)[5] :
+Selon The Plant List            (11 septembre 2013) :
 Platonia esculenta (Arruda) Rickett &amp; Stafleu
 Platonia insignis Mart.
-Selon Tropicos                                           (11 septembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 septembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 Platonia elata Kunth
 Platonia esculenta (Arruda) Oken
 Platonia grandiflora Planch. &amp; Triana
